--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/03.BaoGiaBH/BG210323_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/03.BaoGiaBH/BG210323_TechGlobal.xlsx
@@ -242,7 +242,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -580,7 +586,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,9 +658,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,6 +670,39 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -709,38 +745,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1098,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1127,94 +1142,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1222,10 +1237,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="25"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1236,13 +1251,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1250,10 +1265,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="25"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1265,10 +1280,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -1312,84 +1327,84 @@
       <c r="AA12" s="15"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="60">
         <v>1</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="61">
         <v>868183034629902</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="60">
         <v>1</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="63">
         <v>200000</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="63">
         <f>SUM(H13*I13)</f>
         <v>200000</v>
       </c>
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="60">
         <v>2</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="61">
         <v>868183034560313</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="60">
         <v>1</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="63">
         <v>200000</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="63">
         <f t="shared" ref="J14:J15" si="0">SUM(H14*I14)</f>
         <v>200000</v>
       </c>
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>3</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>869668021847326</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="27" t="s">
@@ -1398,34 +1413,34 @@
       <c r="F15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <v>2</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <v>30000</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="31">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="33">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="32">
         <f>SUM(J13:J15)</f>
         <v>460000</v>
       </c>
@@ -1446,10 +1461,10 @@
     </row>
     <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -1458,31 +1473,31 @@
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="24"/>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
       <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -1509,20 +1524,20 @@
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
       <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1594,6 +1609,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1601,17 +1625,8 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
